--- a/05_Metricas/05_Cuaderno_trabajo.xlsx
+++ b/05_Metricas/05_Cuaderno_trabajo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/jmmorales11_espe_edu_ec/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A303ED10-BAA0-44A7-A557-D193832A48E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{756BA0C3-8D4E-4588-B0FC-2A8C78BFDBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76675092-9C73-4FBE-BC5B-DD630C68992B}"/>
   </bookViews>
   <sheets>
-    <sheet name="CuadernoTrabajo" sheetId="1" r:id="rId1"/>
+    <sheet name="CuadernoTrabajo" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>CUADERNO DE TRABAJO  Nª</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Diseño UX/UI, relación con la base de datos</t>
-  </si>
-  <si>
-    <t>Desarrollo de interfaz y CRUD Requisito 2</t>
   </si>
   <si>
     <t>Desarrollo de las funcionalidades para guardar adecuadamente en la base de datos</t>
@@ -153,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,6 +215,12 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -584,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -602,116 +605,102 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,34 +1015,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5B64EF-84DE-403C-8BA6-811BC4BC2A01}">
-  <dimension ref="B1:N80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E222C9EA-BD8E-487F-856E-CEEBFC2333D6}">
+  <dimension ref="B1:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="9.28515625" style="20" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="28" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="20"/>
+    <col min="7" max="7" width="9.28515625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="24" customWidth="1"/>
+    <col min="9" max="12" width="9.28515625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="18"/>
     <col min="15" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="14.45" thickBot="1"/>
-    <row r="3" spans="2:14" ht="14.45" thickBot="1">
+    <row r="3" spans="2:15">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1063,21 +1049,20 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="33" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="25">
         <v>43234</v>
       </c>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="2:14" ht="14.45" thickBot="1"/>
-    <row r="5" spans="2:14" ht="14.45">
+      <c r="N3" s="19"/>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1087,24 +1072,24 @@
       <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="47" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
-    </row>
-    <row r="6" spans="2:14" s="2" customFormat="1" ht="12.6" thickBot="1">
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="2:15" s="2" customFormat="1" ht="13.5">
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
@@ -1114,967 +1099,942 @@
       <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15">
-      <c r="B7" s="45">
-        <v>1</v>
-      </c>
-      <c r="C7" s="19">
+    <row r="7" spans="2:15">
+      <c r="B7" s="38">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17">
         <v>45446</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="43">
-        <v>2</v>
-      </c>
-      <c r="H7" s="39">
-        <v>2</v>
-      </c>
-      <c r="I7" s="37">
-        <v>2</v>
-      </c>
-      <c r="J7" s="26">
-        <v>2</v>
-      </c>
-      <c r="K7" s="26">
-        <v>2</v>
-      </c>
-      <c r="L7" s="26">
-        <v>1</v>
-      </c>
-      <c r="M7" s="31">
-        <v>2</v>
-      </c>
-      <c r="N7" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="14.25">
-      <c r="B8" s="46"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="33">
+        <v>2</v>
+      </c>
+      <c r="I7" s="31">
+        <f>G7/H7</f>
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1</v>
+      </c>
+      <c r="K7" s="23">
+        <v>2</v>
+      </c>
+      <c r="L7" s="47">
+        <f>J7/K7</f>
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="27">
+        <v>2</v>
+      </c>
+      <c r="N7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="14.25">
+      <c r="B8" s="39"/>
       <c r="C8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="53"/>
-    </row>
-    <row r="9" spans="2:14" ht="15">
-      <c r="B9" s="45">
-        <v>2</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="46"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="38">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17">
         <v>45446</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="43">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="37">
-        <v>1</v>
-      </c>
-      <c r="J9" s="26">
-        <v>1</v>
-      </c>
-      <c r="K9" s="26">
-        <v>1</v>
-      </c>
-      <c r="L9" s="34">
-        <v>1</v>
-      </c>
-      <c r="M9" s="31">
-        <v>1</v>
-      </c>
-      <c r="N9" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="14.25">
-      <c r="B10" s="46"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H9" s="33">
+        <v>2</v>
+      </c>
+      <c r="I9" s="31">
+        <f>G9/H9</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J9" s="23">
+        <v>1</v>
+      </c>
+      <c r="K9" s="23">
+        <v>2</v>
+      </c>
+      <c r="L9" s="47">
+        <f>J9/K9</f>
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="27">
+        <v>2</v>
+      </c>
+      <c r="N9" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="14.25">
+      <c r="B10" s="39"/>
       <c r="C10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-    </row>
-    <row r="11" spans="2:14" ht="15">
-      <c r="B11" s="45">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="38">
         <v>3</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>45446</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="43">
-        <v>2</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="37">
-        <v>2</v>
-      </c>
-      <c r="J11" s="26">
-        <v>2</v>
-      </c>
-      <c r="K11" s="26">
-        <v>2</v>
-      </c>
-      <c r="L11" s="34">
-        <v>1</v>
-      </c>
-      <c r="M11" s="31">
-        <v>1</v>
-      </c>
-      <c r="N11" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="14.25">
-      <c r="B12" s="46"/>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37">
+        <v>6.24</v>
+      </c>
+      <c r="H11" s="33">
+        <v>2</v>
+      </c>
+      <c r="I11" s="31">
+        <f>G11/H11</f>
+        <v>3.12</v>
+      </c>
+      <c r="J11" s="23">
+        <v>6.24</v>
+      </c>
+      <c r="K11" s="23">
+        <v>2</v>
+      </c>
+      <c r="L11" s="23">
+        <f>J11/K11</f>
+        <v>3.12</v>
+      </c>
+      <c r="M11" s="27">
+        <v>2</v>
+      </c>
+      <c r="N11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="14.25">
+      <c r="B12" s="39"/>
       <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-    </row>
-    <row r="13" spans="2:14" ht="15">
-      <c r="B13" s="45">
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="38">
         <v>4</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>45447</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="43">
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="37">
+        <v>7.2</v>
+      </c>
+      <c r="H13" s="33">
+        <v>2</v>
+      </c>
+      <c r="I13" s="49">
+        <f>G13/H13</f>
+        <v>3.6</v>
+      </c>
+      <c r="J13" s="47">
+        <v>7.2</v>
+      </c>
+      <c r="K13" s="23">
+        <v>2</v>
+      </c>
+      <c r="L13" s="47">
+        <f>J13/K13</f>
+        <v>3.6</v>
+      </c>
+      <c r="M13" s="27">
+        <v>2</v>
+      </c>
+      <c r="N13" s="21">
         <v>3</v>
       </c>
-      <c r="H13" s="39">
-        <v>1</v>
-      </c>
-      <c r="I13" s="37">
-        <v>3</v>
-      </c>
-      <c r="J13" s="26">
-        <v>3</v>
-      </c>
-      <c r="K13" s="26">
-        <v>3</v>
-      </c>
-      <c r="L13" s="34">
-        <v>1</v>
-      </c>
-      <c r="M13" s="31">
-        <v>3</v>
-      </c>
-      <c r="N13" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="14.25">
-      <c r="B14" s="46"/>
+    </row>
+    <row r="14" spans="2:15" ht="14.25">
+      <c r="B14" s="39"/>
       <c r="C14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
-    </row>
-    <row r="15" spans="2:14" ht="15">
-      <c r="B15" s="45">
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="38">
         <v>5</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>45446</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="43">
-        <v>2</v>
-      </c>
-      <c r="H15" s="39">
-        <v>1</v>
-      </c>
-      <c r="I15" s="37">
-        <v>2</v>
-      </c>
-      <c r="J15" s="26">
-        <v>5</v>
-      </c>
-      <c r="K15" s="26">
-        <v>5</v>
-      </c>
-      <c r="L15" s="34">
-        <v>1</v>
-      </c>
-      <c r="M15" s="31">
-        <v>3</v>
-      </c>
-      <c r="N15" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="14.45" thickBot="1">
-      <c r="B16" s="46"/>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="37">
+        <v>2</v>
+      </c>
+      <c r="H15" s="33">
+        <v>2</v>
+      </c>
+      <c r="I15" s="31">
+        <f>G15/H15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="23">
+        <v>2</v>
+      </c>
+      <c r="K15" s="23">
+        <v>1</v>
+      </c>
+      <c r="L15" s="23">
+        <f>J15/K15</f>
+        <v>2</v>
+      </c>
+      <c r="M15" s="27">
+        <v>2</v>
+      </c>
+      <c r="N15" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="14.25">
+      <c r="B16" s="39"/>
       <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
-    </row>
-    <row r="17" spans="2:14" ht="15">
-      <c r="B17" s="45">
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="38">
         <v>6</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>45447</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="43">
-        <v>2</v>
-      </c>
-      <c r="H17" s="39">
-        <v>1</v>
-      </c>
-      <c r="I17" s="37">
-        <v>2</v>
-      </c>
-      <c r="J17" s="26">
-        <v>2</v>
-      </c>
-      <c r="K17" s="26">
-        <v>2</v>
-      </c>
-      <c r="L17" s="34">
-        <v>1</v>
-      </c>
-      <c r="M17" s="31">
-        <v>2</v>
-      </c>
-      <c r="N17" s="23">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="37">
+        <v>2</v>
+      </c>
+      <c r="H17" s="33">
+        <v>2</v>
+      </c>
+      <c r="I17" s="31">
+        <f>G17/H17</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="23">
+        <v>2</v>
+      </c>
+      <c r="K17" s="23">
+        <v>2</v>
+      </c>
+      <c r="L17" s="23">
+        <f>J17/K17</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="27">
+        <v>2</v>
+      </c>
+      <c r="N17" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="14.25">
-      <c r="B18" s="46"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
-    </row>
-    <row r="19" spans="2:14" ht="15">
-      <c r="B19" s="45">
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="38">
         <v>7</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>45448</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="43">
-        <v>4</v>
-      </c>
-      <c r="H19" s="39">
-        <v>1</v>
-      </c>
-      <c r="I19" s="37">
-        <v>4</v>
-      </c>
-      <c r="J19" s="26">
-        <v>9</v>
-      </c>
-      <c r="K19" s="26">
-        <v>9</v>
-      </c>
-      <c r="L19" s="34">
-        <v>1</v>
-      </c>
-      <c r="M19" s="31">
-        <v>4</v>
-      </c>
-      <c r="N19" s="23">
-        <v>2</v>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="33">
+        <v>2</v>
+      </c>
+      <c r="I19" s="31">
+        <f>G19/H19</f>
+        <v>1.25</v>
+      </c>
+      <c r="J19" s="47">
+        <v>2.5</v>
+      </c>
+      <c r="K19" s="23">
+        <v>1</v>
+      </c>
+      <c r="L19" s="47">
+        <f>J19/K19</f>
+        <v>2.5</v>
+      </c>
+      <c r="M19" s="27">
+        <v>3</v>
+      </c>
+      <c r="N19" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="14.25">
-      <c r="B20" s="46"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="53"/>
-    </row>
-    <row r="21" spans="2:14" ht="15">
-      <c r="B21" s="45">
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="38">
         <v>8</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>45448</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="43">
-        <v>4</v>
-      </c>
-      <c r="H21" s="39">
-        <v>1</v>
-      </c>
-      <c r="I21" s="37">
-        <v>4</v>
-      </c>
-      <c r="J21" s="26">
-        <v>6</v>
-      </c>
-      <c r="K21" s="26">
-        <v>6</v>
-      </c>
-      <c r="L21" s="34">
-        <v>1</v>
-      </c>
-      <c r="M21" s="31">
-        <v>4</v>
-      </c>
-      <c r="N21" s="23">
-        <v>2</v>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="37">
+        <v>1.59</v>
+      </c>
+      <c r="H21" s="33">
+        <v>2</v>
+      </c>
+      <c r="I21" s="49">
+        <f>G21/H21</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="J21" s="23">
+        <v>1.59</v>
+      </c>
+      <c r="K21" s="23">
+        <v>1</v>
+      </c>
+      <c r="L21" s="23">
+        <f>J21/K21</f>
+        <v>1.59</v>
+      </c>
+      <c r="M21" s="27">
+        <v>2</v>
+      </c>
+      <c r="N21" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="14.25">
-      <c r="B22" s="46"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-    </row>
-    <row r="23" spans="2:14" ht="15">
-      <c r="B23" s="45">
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="46"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="38">
         <v>9</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>45449</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="43">
-        <v>1</v>
-      </c>
-      <c r="H23" s="39">
-        <v>1</v>
-      </c>
-      <c r="I23" s="37">
-        <v>1</v>
-      </c>
-      <c r="J23" s="26">
-        <v>1</v>
-      </c>
-      <c r="K23" s="26">
-        <v>1</v>
-      </c>
-      <c r="L23" s="34">
-        <v>1</v>
-      </c>
-      <c r="M23" s="31">
-        <v>1</v>
-      </c>
-      <c r="N23" s="23">
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="37">
+        <v>2.4</v>
+      </c>
+      <c r="H23" s="33">
+        <v>2</v>
+      </c>
+      <c r="I23" s="49">
+        <f>G23/H23</f>
+        <v>1.2</v>
+      </c>
+      <c r="J23" s="47">
+        <v>2.4</v>
+      </c>
+      <c r="K23" s="23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="47">
+        <f>J23/K23</f>
+        <v>2.4</v>
+      </c>
+      <c r="M23" s="27">
+        <v>2</v>
+      </c>
+      <c r="N23" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="14.25">
-      <c r="B24" s="46"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="53"/>
-    </row>
-    <row r="25" spans="2:14" ht="15">
-      <c r="B25" s="45">
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="38">
         <v>10</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>45449</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="43">
-        <v>6</v>
-      </c>
-      <c r="H25" s="39">
-        <v>1</v>
-      </c>
-      <c r="I25" s="37">
-        <v>6</v>
-      </c>
-      <c r="J25" s="26">
-        <v>15</v>
-      </c>
-      <c r="K25" s="26">
-        <v>15</v>
-      </c>
-      <c r="L25" s="34">
-        <v>1</v>
-      </c>
-      <c r="M25" s="31">
-        <v>6</v>
-      </c>
-      <c r="N25" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="14.45" thickBot="1">
-      <c r="B26" s="46"/>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="37">
+        <v>2</v>
+      </c>
+      <c r="H25" s="33">
+        <v>2</v>
+      </c>
+      <c r="I25" s="31">
+        <f>G25/H25</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="23">
+        <v>2</v>
+      </c>
+      <c r="K25" s="23">
+        <v>1</v>
+      </c>
+      <c r="L25" s="23">
+        <f>J25/K25</f>
+        <v>2</v>
+      </c>
+      <c r="M25" s="27">
+        <v>3</v>
+      </c>
+      <c r="N25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="14.25">
+      <c r="B26" s="39"/>
       <c r="C26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="53"/>
-    </row>
-    <row r="27" spans="2:14" ht="15">
-      <c r="B27" s="45">
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="38">
         <v>11</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>45449</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="43">
-        <v>1</v>
-      </c>
-      <c r="H27" s="39">
-        <v>1</v>
-      </c>
-      <c r="I27" s="37">
-        <v>1</v>
-      </c>
-      <c r="J27" s="26">
-        <v>2</v>
-      </c>
-      <c r="K27" s="26">
-        <v>2</v>
-      </c>
-      <c r="L27" s="34">
-        <v>1</v>
-      </c>
-      <c r="M27" s="31">
-        <v>1</v>
-      </c>
-      <c r="N27" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="15">
-      <c r="B28" s="46"/>
+      <c r="E27" s="4">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="37">
+        <v>4</v>
+      </c>
+      <c r="H27" s="33">
+        <v>2</v>
+      </c>
+      <c r="I27" s="31">
+        <f>G27/H27</f>
+        <v>2</v>
+      </c>
+      <c r="J27" s="23">
+        <v>4</v>
+      </c>
+      <c r="K27" s="23">
+        <v>9</v>
+      </c>
+      <c r="L27" s="47">
+        <f>J27/K27</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M27" s="27">
+        <v>4</v>
+      </c>
+      <c r="N27" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="14.25">
+      <c r="B28" s="39"/>
       <c r="C28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="2:14" ht="15">
-      <c r="B29" s="45">
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="46"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="38">
         <v>12</v>
       </c>
-      <c r="C29" s="19">
-        <v>45449</v>
+      <c r="C29" s="17">
+        <v>45450</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="43">
-        <v>3</v>
-      </c>
-      <c r="H29" s="39">
-        <v>1</v>
-      </c>
-      <c r="I29" s="37">
-        <v>3</v>
-      </c>
-      <c r="J29" s="26">
-        <v>9</v>
-      </c>
-      <c r="K29" s="26">
-        <v>9</v>
-      </c>
-      <c r="L29" s="34">
-        <v>1</v>
-      </c>
-      <c r="M29" s="31">
-        <v>4</v>
-      </c>
-      <c r="N29" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="14.45" thickBot="1">
-      <c r="B30" s="46"/>
+        <v>18</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="37">
+        <v>1</v>
+      </c>
+      <c r="H29" s="33">
+        <v>2</v>
+      </c>
+      <c r="I29" s="49">
+        <f>G29/H29</f>
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="23">
+        <v>1</v>
+      </c>
+      <c r="K29" s="23">
+        <v>19</v>
+      </c>
+      <c r="L29" s="47">
+        <f>J29/K29</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="M29" s="27">
+        <v>2</v>
+      </c>
+      <c r="N29" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="14.25">
+      <c r="B30" s="39"/>
       <c r="C30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-    </row>
-    <row r="31" spans="2:14" ht="15">
-      <c r="B31" s="45">
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="46"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="38">
         <v>13</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="17">
         <v>45450</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="43">
-        <v>4</v>
-      </c>
-      <c r="H31" s="39">
-        <v>1</v>
-      </c>
-      <c r="I31" s="37">
-        <v>4</v>
-      </c>
-      <c r="J31" s="26">
-        <v>19</v>
-      </c>
-      <c r="K31" s="26">
-        <v>19</v>
-      </c>
-      <c r="L31" s="34">
-        <v>1</v>
-      </c>
-      <c r="M31" s="31">
-        <v>6</v>
-      </c>
-      <c r="N31" s="23">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="37">
+        <v>3</v>
+      </c>
+      <c r="H31" s="33">
+        <v>2</v>
+      </c>
+      <c r="I31" s="49">
+        <f>G31/H31</f>
+        <v>1.5</v>
+      </c>
+      <c r="J31" s="23">
+        <v>3</v>
+      </c>
+      <c r="K31" s="23">
+        <v>3</v>
+      </c>
+      <c r="L31" s="23">
+        <f>J31/K31</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="27">
+        <v>2</v>
+      </c>
+      <c r="N31" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="14.25">
-      <c r="B32" s="46"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="53"/>
-    </row>
-    <row r="33" spans="2:14" ht="15">
-      <c r="B33" s="45">
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="46"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="38">
         <v>14</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="17">
         <v>45450</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="43">
-        <v>1</v>
-      </c>
-      <c r="H33" s="39">
-        <v>1</v>
-      </c>
-      <c r="I33" s="37">
-        <v>1</v>
-      </c>
-      <c r="J33" s="26">
+        <v>27</v>
+      </c>
+      <c r="E33" s="4">
         <v>3</v>
       </c>
-      <c r="K33" s="26">
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="37">
         <v>3</v>
       </c>
-      <c r="L33" s="34">
-        <v>1</v>
-      </c>
-      <c r="M33" s="31">
-        <v>1</v>
-      </c>
-      <c r="N33" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="14.45" thickBot="1">
-      <c r="B34" s="46"/>
+      <c r="H33" s="33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="49">
+        <f>G33/H33</f>
+        <v>1.5</v>
+      </c>
+      <c r="J33" s="23">
+        <v>16</v>
+      </c>
+      <c r="K33" s="23">
+        <v>16</v>
+      </c>
+      <c r="L33" s="23">
+        <f>J33/K33</f>
+        <v>1</v>
+      </c>
+      <c r="M33" s="27">
+        <v>4</v>
+      </c>
+      <c r="N33" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="14.25">
+      <c r="B34" s="39"/>
       <c r="C34" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="53"/>
-    </row>
-    <row r="35" spans="2:14" ht="15">
-      <c r="B35" s="45">
-        <v>15</v>
-      </c>
-      <c r="C35" s="19">
-        <v>45450</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="43">
-        <v>7</v>
-      </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
-      <c r="I35" s="37">
-        <v>7</v>
-      </c>
-      <c r="J35" s="26">
-        <v>16</v>
-      </c>
-      <c r="K35" s="26">
-        <v>16</v>
-      </c>
-      <c r="L35" s="34">
-        <v>1</v>
-      </c>
-      <c r="M35" s="31">
-        <v>7</v>
-      </c>
-      <c r="N35" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="14.25">
-      <c r="B36" s="46"/>
-      <c r="C36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="53"/>
-    </row>
-    <row r="37" spans="2:14" ht="15"/>
-    <row r="38" spans="2:14" ht="15"/>
-    <row r="39" spans="2:14" ht="15"/>
-    <row r="40" spans="2:14" ht="15"/>
-    <row r="41" spans="2:14" ht="15"/>
-    <row r="42" spans="2:14" ht="15"/>
-    <row r="43" spans="2:14" ht="15"/>
-    <row r="44" spans="2:14" ht="15"/>
-    <row r="45" spans="2:14" ht="15"/>
-    <row r="46" spans="2:14" ht="15"/>
-    <row r="47" spans="2:14" ht="15"/>
-    <row r="48" spans="2:14" ht="15"/>
-    <row r="49" ht="15"/>
-    <row r="50" ht="15"/>
-    <row r="51" ht="15"/>
-    <row r="52" ht="15"/>
-    <row r="53" ht="15"/>
-    <row r="54" ht="15"/>
-    <row r="55" ht="15"/>
-    <row r="56" ht="15"/>
-    <row r="57" ht="15"/>
-    <row r="58" ht="15"/>
-    <row r="59" ht="15"/>
-    <row r="60" ht="15"/>
-    <row r="61" ht="15"/>
-    <row r="62" ht="15"/>
-    <row r="63" ht="15"/>
-    <row r="64" ht="15"/>
-    <row r="65" ht="15"/>
-    <row r="66" ht="15"/>
-    <row r="67" ht="15"/>
-    <row r="68" ht="15"/>
-    <row r="69" ht="15"/>
-    <row r="70" ht="15"/>
-    <row r="71" ht="15"/>
-    <row r="72" ht="15"/>
-    <row r="73" ht="15"/>
-    <row r="74" ht="15"/>
-    <row r="75" ht="15"/>
-    <row r="76" ht="15"/>
-    <row r="77" ht="15"/>
-    <row r="78" ht="15"/>
-    <row r="79" ht="15"/>
-    <row r="80" ht="15"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="31">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D32:N32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D34:N34"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D28:N28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D22:N22"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D12:N12"/>
-    <mergeCell ref="D34:N34"/>
-    <mergeCell ref="D36:N36"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="D26:N26"/>
-    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="D14:N14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="D16:N16"/>
-    <mergeCell ref="D18:N18"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="D32:N32"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D8:N8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D10:N10"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="63cdd07b-8ba3-4e81-ab36-dec70f47e613" xsi:nil="true"/>
@@ -2082,7 +2042,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F781BFD3C3FD043A35842952F161E1B" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5ca6376baaaca4a824db4f1856bcb0b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63cdd07b-8ba3-4e81-ab36-dec70f47e613" xmlns:ns4="8dc62457-d598-435e-a6a7-36d2b5df41e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d3dc830787919936b8ebc281a8ac41ba" ns3:_="" ns4:_="">
     <xsd:import namespace="63cdd07b-8ba3-4e81-ab36-dec70f47e613"/>
@@ -2315,14 +2275,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78875FAC-064C-407D-8485-4FDB8DE9849F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5CC1A75-BF3C-4DFC-B49A-84FBA478BE1B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5CC1A75-BF3C-4DFC-B49A-84FBA478BE1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F738EFF1-9CDF-4971-AD7A-C4F1A86E678B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F738EFF1-9CDF-4971-AD7A-C4F1A86E678B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78875FAC-064C-407D-8485-4FDB8DE9849F}"/>
 </file>